--- a/src/resources/excel-model/单位问卷—社会团体—打印版.xlsx
+++ b/src/resources/excel-model/单位问卷—社会团体—打印版.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LY\项目\2019下半年人才流失情况专项调研\问卷\AAAAA\问卷打印版\社会团体\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LY\Desktop\调查表-打印版\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B857032B-5495-497E-9C46-E55002309CC7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A627DBDD-4B78-4963-831B-818BBEA4166B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,8 @@
     <sheet name="存量" sheetId="18" r:id="rId2"/>
     <sheet name="流入" sheetId="19" r:id="rId3"/>
     <sheet name="流出" sheetId="21" r:id="rId4"/>
-    <sheet name="流失人才、增量" sheetId="23" r:id="rId5"/>
+    <sheet name="流失人才" sheetId="23" r:id="rId5"/>
+    <sheet name="增量" sheetId="24" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="135">
   <si>
     <t>《黑龙江省人才普查和流失情况专项工作》单位人才统计平台操作说明</t>
   </si>
@@ -1828,18 +1829,17 @@
   </si>
   <si>
     <r>
-      <t>工作经验（年</t>
-    </r>
-    <r>
       <rPr>
         <b/>
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>房
+价
+高</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1853,9 +1853,9 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>房
-价
-高</t>
+      <t>收
+入
+低</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1863,15 +1863,35 @@
     <r>
       <rPr>
         <b/>
-        <sz val="7"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>收
-入
-低</t>
+      <t>单位流失人才信息表</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>—</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>社会团体</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1885,7 +1905,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>单位流失人才信息表</t>
+      <t>单位人才需求调查表</t>
     </r>
     <r>
       <rPr>
@@ -1896,7 +1916,7 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>—</t>
+      <t>——</t>
     </r>
     <r>
       <rPr>
@@ -1912,1140 +1932,68 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单位人才需求调查表</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>——</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>社会团体</t>
-    </r>
+    <t>人才层次</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">为做好全省人才情况调研工作，全面掌握我省人才规模结构、流失和需求情况，特开发单位人才统计平台。具体操作说明如下：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
+    <t>领军人才</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高精尖人才</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>急需紧缺人才</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后备人才</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般性人才</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>工作经验(年</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">一、单位账号注册
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>请登录网址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>***************</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">，通过管理人员身份证号，注册单位管理账号。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">二、账号登录及统计模块
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>平台调查表包括</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单位基本信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单位人才情况汇总</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单位人才流动汇总</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单位人才需求调查</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个模块。其中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单位人才流动汇总</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>包括</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>流入情况统计</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>流出情况统计</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>流出人才信息统计</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单位基本信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单位人才需求调查</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">个模块，仅需填写当前状态。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单位人才情况汇总</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单位人才流动汇总</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个模块，需要对</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2009-2018</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">年十年期间的各年度数据进行填写。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">三、主要指标说明
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">所属行业：所属行业：依据《国民经济行业分类》分别为农、林、牧、渔业，采矿业，制造业，电力、热力、燃气及水的生产和供应业，建筑业，批发和零售业，交通运输、仓储和邮政业，住宿和餐饮业，信息传输、软件和信息技术服务业，金融业，房地产业，租赁和商务服务业，科学研究和技术服务业，水利、环境和公共设施管理业，居民服务、修理和其他服务业，教育，卫生和社会工作，文化、体育和娱乐业，公共管理、社会保障和社会组织，并对应下设的细分类。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>所属地域：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">个地市、农垦、森工。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>人员类别：按照单位性质</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>机关</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>事业单位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”“社会团体”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>及其他性质划分为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">种问卷，主要差别在管理人员项目中。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单位流失人才信息表中的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>离职时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">写清年份和月份即可。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单位流失人才信息表中的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>从业年限</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">为在本单位工作年限。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        6.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单位流失人才信息表中的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>流入地</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">为流失人员的去向，即到哪座城市参加工作或流向哪座城市。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">四、系统运行说明
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">请使用最新版本浏览器登陆（再具体）。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">调查平台对相关信息自动校验，请准确填写。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>谢谢您在百忙之中抽出时间填写问卷，调查内容将严格保密，且不涉及税务、社保等问题，请您放心作答！</t>
-    </r>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    为做好全省人才情况调研工作，全面掌握我省人才规模结构、流失和需求情况，特开发单位人才统计平台。具体操作说明如下：
+    一、单位账号注册
+    请登录网址https://talent.hrbust.edu.cn，通过下发的唯一账号登录。
+    二、账号登录及统计模块
+    1.平台调查表包括“单位基本信息”、“单位人才情况汇总”、“单位人才流动汇总”和“单位人才需求调查”4个模块。其中“单位人才流动汇总”包括“流入情况统计”、“流出情况统计”、“流出人才信息统计”。
+    2.“单位基本信息”和“单位人才需求调查”2个模块，仅需填写当前状态。
+    3.“单位人才情况汇总”和“单位人才流动汇总”2个模块，需要对2009-2018年十年期间的各年度数据进行填写。
+    三、主要指标说明
+    1.所属行业：所属行业：依据《国民经济行业分类》分别为农、林、牧、渔业，采矿业，制造业，电力、热力、燃气及水的生产和供应业，建筑业，批发和零售业，交通运输、仓储和邮政业，住宿和餐饮业，信息传输、软件和信息技术服务业，金融业，房地产业，租赁和商务服务业，科学研究和技术服务业，水利、环境和公共设施管理业，居民服务、修理和其他服务业，教育，卫生和社会工作，文化、体育和娱乐业，公共管理、社会保障和社会组织，并对应下设的细分类。其中，机关单位的所属行业为“第三产业—公共管理和社会组织—中国共产党机关（或其他分类）”。
+    2.所属地域：13个地市、农垦、森工。
+    3.人员类别：按照单位性质“机关”“事业单位”“社会团体”及“企业”划分为4种问卷，主要差别在管理人员项目中。
+    4.单位流失人才信息表中的“离职时间”写清年份和月份即可。
+    5.单位流失人才信息表中的“从业年限”为在本单位工作年限。
+    6.单位流失人才信息表中的“流入地”为流失人员的去向，即到哪座城市参加工作或流向哪座城市，填写到省份即可。
+    7.薪酬在取值区间点，按照左闭右开选择。例如：薪酬为4000元，选择薪酬区间为4000-5000。
+    8.单位流失人才信息表中关于人才层次的界定请看常见问题回答，且为单选，就高不就低。
+    四、系统运行说明
+    1.请使用最新版本浏览器登陆。
+    2.调查平台对相关信息自动校验，请准确填写。
+    3.请用规格为A3的纸张打印。
+    谢谢您在百忙之中抽出时间填写问卷，调查内容将严格保密，且不涉及税务、社保等问题，请您放心作答！</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3053,7 +2001,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3123,20 +2071,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="1"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -3231,6 +2165,29 @@
       <name val="微软雅黑"/>
       <family val="1"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3344,7 +2301,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3366,178 +2323,199 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3820,8 +2798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A3:XES47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:H47"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3836,16 +2814,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="17.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="1"/>
@@ -3894,114 +2872,114 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
+      <c r="A7" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
+    <row r="13" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="7" t="s">
@@ -4010,14 +2988,14 @@
       <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="7" t="s">
@@ -4026,14 +3004,14 @@
       <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:12" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="7" t="s">
@@ -4042,14 +3020,14 @@
       <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="9" t="s">
@@ -4058,14 +3036,14 @@
       <c r="L17" s="8"/>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="9" t="s">
@@ -4074,14 +3052,14 @@
       <c r="L18" s="8"/>
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="7" t="s">
@@ -4090,14 +3068,14 @@
       <c r="L19" s="8"/>
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="7" t="s">
@@ -4106,14 +3084,14 @@
       <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="7" t="s">
@@ -4122,14 +3100,14 @@
       <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="7" t="s">
@@ -4138,14 +3116,14 @@
       <c r="L22" s="8"/>
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="7" t="s">
@@ -4153,335 +3131,335 @@
       </c>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="1:12" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
+    <row r="24" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
+    <row r="25" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
+    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
+    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
+    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
+    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
+    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
+    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
+    <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
+    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
+    <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
+    <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="45"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
+    <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
+    <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
+    <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
+    <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
     </row>
@@ -4504,7 +3482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABF9F3E-8A24-4A42-95DC-4109CC9828A6}">
   <dimension ref="A1:DN34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C24" sqref="C24:BR24"/>
     </sheetView>
   </sheetViews>
@@ -4519,390 +3497,390 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:118" ht="17.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56"/>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56"/>
-      <c r="AN1" s="56"/>
-      <c r="AO1" s="56"/>
-      <c r="AP1" s="56"/>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="56"/>
-      <c r="AV1" s="56"/>
-      <c r="AW1" s="56"/>
-      <c r="AX1" s="56"/>
-      <c r="AY1" s="56"/>
-      <c r="AZ1" s="56"/>
-      <c r="BA1" s="56"/>
-      <c r="BB1" s="56"/>
-      <c r="BC1" s="56"/>
-      <c r="BD1" s="56"/>
-      <c r="BE1" s="56"/>
-      <c r="BF1" s="56"/>
-      <c r="BG1" s="56"/>
-      <c r="BH1" s="56"/>
-      <c r="BI1" s="56"/>
-      <c r="BJ1" s="56"/>
-      <c r="BK1" s="56"/>
-      <c r="BL1" s="56"/>
-      <c r="BM1" s="56"/>
-      <c r="BN1" s="56"/>
-      <c r="BO1" s="56"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60"/>
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60"/>
+      <c r="BD1" s="60"/>
+      <c r="BE1" s="60"/>
+      <c r="BF1" s="60"/>
+      <c r="BG1" s="60"/>
+      <c r="BH1" s="60"/>
+      <c r="BI1" s="60"/>
+      <c r="BJ1" s="60"/>
+      <c r="BK1" s="60"/>
+      <c r="BL1" s="60"/>
+      <c r="BM1" s="60"/>
+      <c r="BN1" s="60"/>
+      <c r="BO1" s="60"/>
     </row>
     <row r="2" spans="1:118" x14ac:dyDescent="0.25">
       <c r="DN2" s="11"/>
     </row>
     <row r="3" spans="1:118" s="12" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="47" t="s">
+      <c r="E3" s="61"/>
+      <c r="F3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47" t="s">
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="44" t="s">
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="45"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="45"/>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="45"/>
-      <c r="BC3" s="45"/>
-      <c r="BD3" s="45"/>
-      <c r="BE3" s="45"/>
-      <c r="BF3" s="45"/>
-      <c r="BG3" s="45"/>
-      <c r="BH3" s="45"/>
-      <c r="BI3" s="45"/>
-      <c r="BJ3" s="45"/>
-      <c r="BK3" s="45"/>
-      <c r="BL3" s="45"/>
-      <c r="BM3" s="45"/>
-      <c r="BN3" s="46"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="49"/>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="49"/>
+      <c r="AS3" s="49"/>
+      <c r="AT3" s="49"/>
+      <c r="AU3" s="49"/>
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="49"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="49"/>
+      <c r="BC3" s="49"/>
+      <c r="BD3" s="49"/>
+      <c r="BE3" s="49"/>
+      <c r="BF3" s="49"/>
+      <c r="BG3" s="49"/>
+      <c r="BH3" s="49"/>
+      <c r="BI3" s="49"/>
+      <c r="BJ3" s="49"/>
+      <c r="BK3" s="49"/>
+      <c r="BL3" s="49"/>
+      <c r="BM3" s="49"/>
+      <c r="BN3" s="50"/>
     </row>
     <row r="4" spans="1:118" s="12" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="44" t="s">
+      <c r="A4" s="55"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="47" t="s">
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="47"/>
-      <c r="AH4" s="47"/>
-      <c r="AI4" s="47"/>
-      <c r="AJ4" s="47"/>
-      <c r="AK4" s="47"/>
-      <c r="AL4" s="47"/>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="47"/>
-      <c r="AO4" s="47"/>
-      <c r="AP4" s="47"/>
-      <c r="AQ4" s="47"/>
-      <c r="AR4" s="47"/>
-      <c r="AS4" s="47"/>
-      <c r="AT4" s="47"/>
-      <c r="AU4" s="47"/>
-      <c r="AV4" s="47"/>
-      <c r="AW4" s="47"/>
-      <c r="AX4" s="47"/>
-      <c r="AY4" s="47"/>
-      <c r="AZ4" s="47"/>
-      <c r="BA4" s="47"/>
-      <c r="BB4" s="47"/>
-      <c r="BC4" s="47"/>
-      <c r="BD4" s="47"/>
-      <c r="BE4" s="47"/>
-      <c r="BF4" s="47"/>
-      <c r="BG4" s="47"/>
-      <c r="BH4" s="47"/>
-      <c r="BI4" s="47"/>
-      <c r="BJ4" s="47"/>
-      <c r="BK4" s="47"/>
-      <c r="BL4" s="47"/>
-      <c r="BM4" s="47"/>
-      <c r="BN4" s="47"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="51"/>
+      <c r="AJ4" s="51"/>
+      <c r="AK4" s="51"/>
+      <c r="AL4" s="51"/>
+      <c r="AM4" s="51"/>
+      <c r="AN4" s="51"/>
+      <c r="AO4" s="51"/>
+      <c r="AP4" s="51"/>
+      <c r="AQ4" s="51"/>
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="51"/>
+      <c r="AV4" s="51"/>
+      <c r="AW4" s="51"/>
+      <c r="AX4" s="51"/>
+      <c r="AY4" s="51"/>
+      <c r="AZ4" s="51"/>
+      <c r="BA4" s="51"/>
+      <c r="BB4" s="51"/>
+      <c r="BC4" s="51"/>
+      <c r="BD4" s="51"/>
+      <c r="BE4" s="51"/>
+      <c r="BF4" s="51"/>
+      <c r="BG4" s="51"/>
+      <c r="BH4" s="51"/>
+      <c r="BI4" s="51"/>
+      <c r="BJ4" s="51"/>
+      <c r="BK4" s="51"/>
+      <c r="BL4" s="51"/>
+      <c r="BM4" s="51"/>
+      <c r="BN4" s="51"/>
     </row>
     <row r="5" spans="1:118" s="12" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="42" t="s">
+      <c r="A5" s="55"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="K5" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="42" t="s">
+      <c r="L5" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="42" t="s">
+      <c r="M5" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="42" t="s">
+      <c r="N5" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="42" t="s">
+      <c r="P5" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="42" t="s">
+      <c r="Q5" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="42" t="s">
+      <c r="R5" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="42" t="s">
+      <c r="S5" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="42" t="s">
+      <c r="T5" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="42" t="s">
+      <c r="U5" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="42" t="s">
+      <c r="V5" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="W5" s="42" t="s">
+      <c r="W5" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="X5" s="42" t="s">
+      <c r="X5" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="Y5" s="42" t="s">
+      <c r="Y5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="42" t="s">
+      <c r="Z5" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="AA5" s="44" t="s">
+      <c r="AA5" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="44" t="s">
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="46"/>
-      <c r="AK5" s="44" t="s">
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="49"/>
+      <c r="AJ5" s="50"/>
+      <c r="AK5" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="46"/>
-      <c r="AP5" s="44" t="s">
+      <c r="AL5" s="49"/>
+      <c r="AM5" s="49"/>
+      <c r="AN5" s="49"/>
+      <c r="AO5" s="50"/>
+      <c r="AP5" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="AQ5" s="45"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="46"/>
-      <c r="AU5" s="44" t="s">
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="49"/>
+      <c r="AS5" s="49"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AV5" s="45"/>
-      <c r="AW5" s="45"/>
-      <c r="AX5" s="45"/>
-      <c r="AY5" s="46"/>
-      <c r="AZ5" s="44" t="s">
+      <c r="AV5" s="49"/>
+      <c r="AW5" s="49"/>
+      <c r="AX5" s="49"/>
+      <c r="AY5" s="50"/>
+      <c r="AZ5" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="BA5" s="45"/>
-      <c r="BB5" s="45"/>
-      <c r="BC5" s="45"/>
-      <c r="BD5" s="46"/>
-      <c r="BE5" s="44" t="s">
+      <c r="BA5" s="49"/>
+      <c r="BB5" s="49"/>
+      <c r="BC5" s="49"/>
+      <c r="BD5" s="50"/>
+      <c r="BE5" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="BF5" s="45"/>
-      <c r="BG5" s="45"/>
-      <c r="BH5" s="45"/>
-      <c r="BI5" s="46"/>
-      <c r="BJ5" s="44" t="s">
+      <c r="BF5" s="49"/>
+      <c r="BG5" s="49"/>
+      <c r="BH5" s="49"/>
+      <c r="BI5" s="50"/>
+      <c r="BJ5" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="BK5" s="45"/>
-      <c r="BL5" s="45"/>
-      <c r="BM5" s="45"/>
-      <c r="BN5" s="46"/>
+      <c r="BK5" s="49"/>
+      <c r="BL5" s="49"/>
+      <c r="BM5" s="49"/>
+      <c r="BN5" s="50"/>
     </row>
     <row r="6" spans="1:118" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
       <c r="AA6" s="13" t="s">
         <v>48</v>
       </c>
@@ -5955,302 +4933,302 @@
       <c r="DN17" s="11"/>
     </row>
     <row r="20" spans="1:118" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="45"/>
-      <c r="AD20" s="45"/>
-      <c r="AE20" s="45"/>
-      <c r="AF20" s="45"/>
-      <c r="AG20" s="45"/>
-      <c r="AH20" s="45"/>
-      <c r="AI20" s="45"/>
-      <c r="AJ20" s="45"/>
-      <c r="AK20" s="45"/>
-      <c r="AL20" s="45"/>
-      <c r="AM20" s="45"/>
-      <c r="AN20" s="45"/>
-      <c r="AO20" s="45"/>
-      <c r="AP20" s="45"/>
-      <c r="AQ20" s="45"/>
-      <c r="AR20" s="45"/>
-      <c r="AS20" s="45"/>
-      <c r="AT20" s="45"/>
-      <c r="AU20" s="45"/>
-      <c r="AV20" s="45"/>
-      <c r="AW20" s="45"/>
-      <c r="AX20" s="45"/>
-      <c r="AY20" s="45"/>
-      <c r="AZ20" s="45"/>
-      <c r="BA20" s="45"/>
-      <c r="BB20" s="45"/>
-      <c r="BC20" s="45"/>
-      <c r="BD20" s="45"/>
-      <c r="BE20" s="45"/>
-      <c r="BF20" s="45"/>
-      <c r="BG20" s="45"/>
-      <c r="BH20" s="46"/>
-      <c r="BI20" s="53" t="s">
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="49"/>
+      <c r="AA20" s="49"/>
+      <c r="AB20" s="49"/>
+      <c r="AC20" s="49"/>
+      <c r="AD20" s="49"/>
+      <c r="AE20" s="49"/>
+      <c r="AF20" s="49"/>
+      <c r="AG20" s="49"/>
+      <c r="AH20" s="49"/>
+      <c r="AI20" s="49"/>
+      <c r="AJ20" s="49"/>
+      <c r="AK20" s="49"/>
+      <c r="AL20" s="49"/>
+      <c r="AM20" s="49"/>
+      <c r="AN20" s="49"/>
+      <c r="AO20" s="49"/>
+      <c r="AP20" s="49"/>
+      <c r="AQ20" s="49"/>
+      <c r="AR20" s="49"/>
+      <c r="AS20" s="49"/>
+      <c r="AT20" s="49"/>
+      <c r="AU20" s="49"/>
+      <c r="AV20" s="49"/>
+      <c r="AW20" s="49"/>
+      <c r="AX20" s="49"/>
+      <c r="AY20" s="49"/>
+      <c r="AZ20" s="49"/>
+      <c r="BA20" s="49"/>
+      <c r="BB20" s="49"/>
+      <c r="BC20" s="49"/>
+      <c r="BD20" s="49"/>
+      <c r="BE20" s="49"/>
+      <c r="BF20" s="49"/>
+      <c r="BG20" s="49"/>
+      <c r="BH20" s="50"/>
+      <c r="BI20" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="BJ20" s="54"/>
-      <c r="BK20" s="54"/>
-      <c r="BL20" s="54"/>
-      <c r="BM20" s="54"/>
-      <c r="BN20" s="54"/>
-      <c r="BO20" s="54"/>
-      <c r="BP20" s="54"/>
-      <c r="BQ20" s="54"/>
-      <c r="BR20" s="54"/>
+      <c r="BJ20" s="58"/>
+      <c r="BK20" s="58"/>
+      <c r="BL20" s="58"/>
+      <c r="BM20" s="58"/>
+      <c r="BN20" s="58"/>
+      <c r="BO20" s="58"/>
+      <c r="BP20" s="58"/>
+      <c r="BQ20" s="58"/>
+      <c r="BR20" s="58"/>
     </row>
     <row r="21" spans="1:118" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="44" t="s">
+      <c r="A21" s="55"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="45"/>
-      <c r="AC21" s="45"/>
-      <c r="AD21" s="45"/>
-      <c r="AE21" s="45"/>
-      <c r="AF21" s="45"/>
-      <c r="AG21" s="45"/>
-      <c r="AH21" s="45"/>
-      <c r="AI21" s="45"/>
-      <c r="AJ21" s="45"/>
-      <c r="AK21" s="45"/>
-      <c r="AL21" s="45"/>
-      <c r="AM21" s="45"/>
-      <c r="AN21" s="45"/>
-      <c r="AO21" s="45"/>
-      <c r="AP21" s="45"/>
-      <c r="AQ21" s="45"/>
-      <c r="AR21" s="45"/>
-      <c r="AS21" s="45"/>
-      <c r="AT21" s="45"/>
-      <c r="AU21" s="46"/>
-      <c r="AV21" s="47" t="s">
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="49"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="49"/>
+      <c r="AC21" s="49"/>
+      <c r="AD21" s="49"/>
+      <c r="AE21" s="49"/>
+      <c r="AF21" s="49"/>
+      <c r="AG21" s="49"/>
+      <c r="AH21" s="49"/>
+      <c r="AI21" s="49"/>
+      <c r="AJ21" s="49"/>
+      <c r="AK21" s="49"/>
+      <c r="AL21" s="49"/>
+      <c r="AM21" s="49"/>
+      <c r="AN21" s="49"/>
+      <c r="AO21" s="49"/>
+      <c r="AP21" s="49"/>
+      <c r="AQ21" s="49"/>
+      <c r="AR21" s="49"/>
+      <c r="AS21" s="49"/>
+      <c r="AT21" s="49"/>
+      <c r="AU21" s="50"/>
+      <c r="AV21" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="AW21" s="47"/>
-      <c r="AX21" s="47"/>
-      <c r="AY21" s="47"/>
-      <c r="AZ21" s="47"/>
-      <c r="BA21" s="47"/>
-      <c r="BB21" s="47" t="s">
+      <c r="AW21" s="51"/>
+      <c r="AX21" s="51"/>
+      <c r="AY21" s="51"/>
+      <c r="AZ21" s="51"/>
+      <c r="BA21" s="51"/>
+      <c r="BB21" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="BC21" s="47"/>
-      <c r="BD21" s="47"/>
-      <c r="BE21" s="47"/>
-      <c r="BF21" s="47"/>
-      <c r="BG21" s="42" t="s">
+      <c r="BC21" s="51"/>
+      <c r="BD21" s="51"/>
+      <c r="BE21" s="51"/>
+      <c r="BF21" s="51"/>
+      <c r="BG21" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="BH21" s="42" t="s">
+      <c r="BH21" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="BI21" s="54"/>
-      <c r="BJ21" s="54"/>
-      <c r="BK21" s="54"/>
-      <c r="BL21" s="54"/>
-      <c r="BM21" s="54"/>
-      <c r="BN21" s="54"/>
-      <c r="BO21" s="54"/>
-      <c r="BP21" s="54"/>
-      <c r="BQ21" s="54"/>
-      <c r="BR21" s="54"/>
+      <c r="BI21" s="58"/>
+      <c r="BJ21" s="58"/>
+      <c r="BK21" s="58"/>
+      <c r="BL21" s="58"/>
+      <c r="BM21" s="58"/>
+      <c r="BN21" s="58"/>
+      <c r="BO21" s="58"/>
+      <c r="BP21" s="58"/>
+      <c r="BQ21" s="58"/>
+      <c r="BR21" s="58"/>
     </row>
     <row r="22" spans="1:118" ht="65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="44" t="s">
+      <c r="A22" s="55"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="47" t="s">
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47" t="s">
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47" t="s">
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="47" t="s">
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="47"/>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="47"/>
-      <c r="AB22" s="47" t="s">
+      <c r="X22" s="51"/>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="51"/>
+      <c r="AA22" s="51"/>
+      <c r="AB22" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="AC22" s="47"/>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="47"/>
-      <c r="AF22" s="47"/>
-      <c r="AG22" s="47" t="s">
+      <c r="AC22" s="51"/>
+      <c r="AD22" s="51"/>
+      <c r="AE22" s="51"/>
+      <c r="AF22" s="51"/>
+      <c r="AG22" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="AH22" s="47"/>
-      <c r="AI22" s="47"/>
-      <c r="AJ22" s="47"/>
-      <c r="AK22" s="47"/>
-      <c r="AL22" s="47" t="s">
+      <c r="AH22" s="51"/>
+      <c r="AI22" s="51"/>
+      <c r="AJ22" s="51"/>
+      <c r="AK22" s="51"/>
+      <c r="AL22" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="AM22" s="47"/>
-      <c r="AN22" s="47"/>
-      <c r="AO22" s="47"/>
-      <c r="AP22" s="47"/>
-      <c r="AQ22" s="47" t="s">
+      <c r="AM22" s="51"/>
+      <c r="AN22" s="51"/>
+      <c r="AO22" s="51"/>
+      <c r="AP22" s="51"/>
+      <c r="AQ22" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="AR22" s="47"/>
-      <c r="AS22" s="47"/>
-      <c r="AT22" s="47"/>
-      <c r="AU22" s="47"/>
-      <c r="AV22" s="42" t="s">
+      <c r="AR22" s="51"/>
+      <c r="AS22" s="51"/>
+      <c r="AT22" s="51"/>
+      <c r="AU22" s="51"/>
+      <c r="AV22" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="AW22" s="42" t="s">
+      <c r="AW22" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="AX22" s="42" t="s">
+      <c r="AX22" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="AY22" s="42" t="s">
+      <c r="AY22" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AZ22" s="42" t="s">
+      <c r="AZ22" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="BA22" s="42" t="s">
+      <c r="BA22" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="BB22" s="42" t="s">
+      <c r="BB22" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="BC22" s="42" t="s">
+      <c r="BC22" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="BD22" s="42" t="s">
+      <c r="BD22" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="BE22" s="42" t="s">
+      <c r="BE22" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="BF22" s="42" t="s">
+      <c r="BF22" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="BG22" s="49"/>
-      <c r="BH22" s="49"/>
-      <c r="BI22" s="48" t="s">
+      <c r="BG22" s="53"/>
+      <c r="BH22" s="53"/>
+      <c r="BI22" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="BJ22" s="42" t="s">
+      <c r="BJ22" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="BK22" s="42" t="s">
+      <c r="BK22" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="BL22" s="42" t="s">
+      <c r="BL22" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="BM22" s="42" t="s">
+      <c r="BM22" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="BN22" s="42" t="s">
+      <c r="BN22" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="BO22" s="42" t="s">
+      <c r="BO22" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="BP22" s="42" t="s">
+      <c r="BP22" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="BQ22" s="42" t="s">
+      <c r="BQ22" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="BR22" s="42" t="s">
+      <c r="BR22" s="46" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:118" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
-      <c r="B23" s="43"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="13" t="s">
         <v>48</v>
       </c>
@@ -6386,29 +5364,29 @@
       <c r="AU23" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="AV23" s="43"/>
-      <c r="AW23" s="43"/>
-      <c r="AX23" s="43"/>
-      <c r="AY23" s="43"/>
-      <c r="AZ23" s="43"/>
-      <c r="BA23" s="43"/>
-      <c r="BB23" s="43"/>
-      <c r="BC23" s="43"/>
-      <c r="BD23" s="43"/>
-      <c r="BE23" s="43"/>
-      <c r="BF23" s="43"/>
-      <c r="BG23" s="43"/>
-      <c r="BH23" s="43"/>
-      <c r="BI23" s="43"/>
-      <c r="BJ23" s="43"/>
-      <c r="BK23" s="43"/>
-      <c r="BL23" s="43"/>
-      <c r="BM23" s="43"/>
-      <c r="BN23" s="43"/>
-      <c r="BO23" s="43"/>
-      <c r="BP23" s="43"/>
-      <c r="BQ23" s="43"/>
-      <c r="BR23" s="43"/>
+      <c r="AV23" s="47"/>
+      <c r="AW23" s="47"/>
+      <c r="AX23" s="47"/>
+      <c r="AY23" s="47"/>
+      <c r="AZ23" s="47"/>
+      <c r="BA23" s="47"/>
+      <c r="BB23" s="47"/>
+      <c r="BC23" s="47"/>
+      <c r="BD23" s="47"/>
+      <c r="BE23" s="47"/>
+      <c r="BF23" s="47"/>
+      <c r="BG23" s="47"/>
+      <c r="BH23" s="47"/>
+      <c r="BI23" s="47"/>
+      <c r="BJ23" s="47"/>
+      <c r="BK23" s="47"/>
+      <c r="BL23" s="47"/>
+      <c r="BM23" s="47"/>
+      <c r="BN23" s="47"/>
+      <c r="BO23" s="47"/>
+      <c r="BP23" s="47"/>
+      <c r="BQ23" s="47"/>
+      <c r="BR23" s="47"/>
     </row>
     <row r="24" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
@@ -7495,396 +6473,396 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70 16380:16380" ht="17.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56"/>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56"/>
-      <c r="AN1" s="56"/>
-      <c r="AO1" s="56"/>
-      <c r="AP1" s="56"/>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="56"/>
-      <c r="AV1" s="56"/>
-      <c r="AW1" s="56"/>
-      <c r="AX1" s="56"/>
-      <c r="AY1" s="56"/>
-      <c r="AZ1" s="56"/>
-      <c r="BA1" s="56"/>
-      <c r="BB1" s="56"/>
-      <c r="BC1" s="56"/>
-      <c r="BD1" s="56"/>
-      <c r="BE1" s="56"/>
-      <c r="BF1" s="56"/>
-      <c r="BG1" s="56"/>
-      <c r="BH1" s="56"/>
-      <c r="BI1" s="56"/>
-      <c r="BJ1" s="56"/>
-      <c r="BK1" s="56"/>
-      <c r="BL1" s="56"/>
-      <c r="BM1" s="56"/>
-      <c r="BN1" s="56"/>
-      <c r="BO1" s="56"/>
-      <c r="BP1" s="56"/>
-      <c r="BQ1" s="56"/>
-      <c r="BR1" s="56"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60"/>
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60"/>
+      <c r="BD1" s="60"/>
+      <c r="BE1" s="60"/>
+      <c r="BF1" s="60"/>
+      <c r="BG1" s="60"/>
+      <c r="BH1" s="60"/>
+      <c r="BI1" s="60"/>
+      <c r="BJ1" s="60"/>
+      <c r="BK1" s="60"/>
+      <c r="BL1" s="60"/>
+      <c r="BM1" s="60"/>
+      <c r="BN1" s="60"/>
+      <c r="BO1" s="60"/>
+      <c r="BP1" s="60"/>
+      <c r="BQ1" s="60"/>
+      <c r="BR1" s="60"/>
     </row>
     <row r="2" spans="1:70 16380:16380" x14ac:dyDescent="0.25">
       <c r="XEZ2" s="21"/>
     </row>
     <row r="3" spans="1:70 16380:16380" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="47" t="s">
+      <c r="E3" s="61"/>
+      <c r="F3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="57" t="s">
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="44" t="s">
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="45"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="45"/>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="45"/>
-      <c r="BC3" s="45"/>
-      <c r="BD3" s="45"/>
-      <c r="BE3" s="45"/>
-      <c r="BF3" s="45"/>
-      <c r="BG3" s="45"/>
-      <c r="BH3" s="45"/>
-      <c r="BI3" s="45"/>
-      <c r="BJ3" s="45"/>
-      <c r="BK3" s="45"/>
-      <c r="BL3" s="45"/>
-      <c r="BM3" s="45"/>
-      <c r="BN3" s="46"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="49"/>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="49"/>
+      <c r="AS3" s="49"/>
+      <c r="AT3" s="49"/>
+      <c r="AU3" s="49"/>
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="49"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="49"/>
+      <c r="BC3" s="49"/>
+      <c r="BD3" s="49"/>
+      <c r="BE3" s="49"/>
+      <c r="BF3" s="49"/>
+      <c r="BG3" s="49"/>
+      <c r="BH3" s="49"/>
+      <c r="BI3" s="49"/>
+      <c r="BJ3" s="49"/>
+      <c r="BK3" s="49"/>
+      <c r="BL3" s="49"/>
+      <c r="BM3" s="49"/>
+      <c r="BN3" s="50"/>
       <c r="XEZ3" s="21"/>
     </row>
     <row r="4" spans="1:70 16380:16380" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="44" t="s">
+      <c r="A4" s="63"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="47" t="s">
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="47"/>
-      <c r="AH4" s="47"/>
-      <c r="AI4" s="47"/>
-      <c r="AJ4" s="47"/>
-      <c r="AK4" s="47"/>
-      <c r="AL4" s="47"/>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="47"/>
-      <c r="AO4" s="47"/>
-      <c r="AP4" s="47"/>
-      <c r="AQ4" s="47"/>
-      <c r="AR4" s="47"/>
-      <c r="AS4" s="47"/>
-      <c r="AT4" s="47"/>
-      <c r="AU4" s="47"/>
-      <c r="AV4" s="47"/>
-      <c r="AW4" s="47"/>
-      <c r="AX4" s="47"/>
-      <c r="AY4" s="47"/>
-      <c r="AZ4" s="47"/>
-      <c r="BA4" s="47"/>
-      <c r="BB4" s="47"/>
-      <c r="BC4" s="47"/>
-      <c r="BD4" s="47"/>
-      <c r="BE4" s="47"/>
-      <c r="BF4" s="47"/>
-      <c r="BG4" s="47"/>
-      <c r="BH4" s="47"/>
-      <c r="BI4" s="47"/>
-      <c r="BJ4" s="47"/>
-      <c r="BK4" s="47"/>
-      <c r="BL4" s="47"/>
-      <c r="BM4" s="47"/>
-      <c r="BN4" s="47"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="51"/>
+      <c r="AJ4" s="51"/>
+      <c r="AK4" s="51"/>
+      <c r="AL4" s="51"/>
+      <c r="AM4" s="51"/>
+      <c r="AN4" s="51"/>
+      <c r="AO4" s="51"/>
+      <c r="AP4" s="51"/>
+      <c r="AQ4" s="51"/>
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="51"/>
+      <c r="AV4" s="51"/>
+      <c r="AW4" s="51"/>
+      <c r="AX4" s="51"/>
+      <c r="AY4" s="51"/>
+      <c r="AZ4" s="51"/>
+      <c r="BA4" s="51"/>
+      <c r="BB4" s="51"/>
+      <c r="BC4" s="51"/>
+      <c r="BD4" s="51"/>
+      <c r="BE4" s="51"/>
+      <c r="BF4" s="51"/>
+      <c r="BG4" s="51"/>
+      <c r="BH4" s="51"/>
+      <c r="BI4" s="51"/>
+      <c r="BJ4" s="51"/>
+      <c r="BK4" s="51"/>
+      <c r="BL4" s="51"/>
+      <c r="BM4" s="51"/>
+      <c r="BN4" s="51"/>
       <c r="XEZ4" s="21"/>
     </row>
     <row r="5" spans="1:70 16380:16380" ht="65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="58" t="s">
+      <c r="A5" s="63"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="61" t="s">
+      <c r="K5" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="61" t="s">
+      <c r="L5" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="61" t="s">
+      <c r="M5" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="61" t="s">
+      <c r="N5" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="61" t="s">
+      <c r="O5" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="42" t="s">
+      <c r="P5" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="42" t="s">
+      <c r="Q5" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="42" t="s">
+      <c r="R5" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="42" t="s">
+      <c r="S5" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="42" t="s">
+      <c r="T5" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="42" t="s">
+      <c r="U5" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="42" t="s">
+      <c r="V5" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="W5" s="42" t="s">
+      <c r="W5" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="X5" s="42" t="s">
+      <c r="X5" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="Y5" s="42" t="s">
+      <c r="Y5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="42" t="s">
+      <c r="Z5" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="AA5" s="44" t="s">
+      <c r="AA5" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="44" t="s">
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="46"/>
-      <c r="AK5" s="44" t="s">
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="49"/>
+      <c r="AJ5" s="50"/>
+      <c r="AK5" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="46"/>
-      <c r="AP5" s="44" t="s">
+      <c r="AL5" s="49"/>
+      <c r="AM5" s="49"/>
+      <c r="AN5" s="49"/>
+      <c r="AO5" s="50"/>
+      <c r="AP5" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="AQ5" s="45"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="46"/>
-      <c r="AU5" s="44" t="s">
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="49"/>
+      <c r="AS5" s="49"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AV5" s="45"/>
-      <c r="AW5" s="45"/>
-      <c r="AX5" s="45"/>
-      <c r="AY5" s="46"/>
-      <c r="AZ5" s="44" t="s">
+      <c r="AV5" s="49"/>
+      <c r="AW5" s="49"/>
+      <c r="AX5" s="49"/>
+      <c r="AY5" s="50"/>
+      <c r="AZ5" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="BA5" s="45"/>
-      <c r="BB5" s="45"/>
-      <c r="BC5" s="45"/>
-      <c r="BD5" s="46"/>
-      <c r="BE5" s="47" t="s">
+      <c r="BA5" s="49"/>
+      <c r="BB5" s="49"/>
+      <c r="BC5" s="49"/>
+      <c r="BD5" s="50"/>
+      <c r="BE5" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="BF5" s="47"/>
-      <c r="BG5" s="47"/>
-      <c r="BH5" s="47"/>
-      <c r="BI5" s="47"/>
-      <c r="BJ5" s="44" t="s">
+      <c r="BF5" s="51"/>
+      <c r="BG5" s="51"/>
+      <c r="BH5" s="51"/>
+      <c r="BI5" s="51"/>
+      <c r="BJ5" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="BK5" s="45"/>
-      <c r="BL5" s="45"/>
-      <c r="BM5" s="45"/>
-      <c r="BN5" s="46"/>
+      <c r="BK5" s="49"/>
+      <c r="BL5" s="49"/>
+      <c r="BM5" s="49"/>
+      <c r="BN5" s="50"/>
       <c r="XEZ5" s="21"/>
     </row>
     <row r="6" spans="1:70 16380:16380" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
       <c r="AA6" s="13" t="s">
         <v>48</v>
       </c>
@@ -8939,84 +7917,84 @@
       <c r="XEZ17" s="21"/>
     </row>
     <row r="20" spans="1:70 16376:16380" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="45"/>
-      <c r="AD20" s="45"/>
-      <c r="AE20" s="45"/>
-      <c r="AF20" s="45"/>
-      <c r="AG20" s="45"/>
-      <c r="AH20" s="45"/>
-      <c r="AI20" s="45"/>
-      <c r="AJ20" s="45"/>
-      <c r="AK20" s="45"/>
-      <c r="AL20" s="45"/>
-      <c r="AM20" s="45"/>
-      <c r="AN20" s="45"/>
-      <c r="AO20" s="45"/>
-      <c r="AP20" s="45"/>
-      <c r="AQ20" s="45"/>
-      <c r="AR20" s="45"/>
-      <c r="AS20" s="45"/>
-      <c r="AT20" s="45"/>
-      <c r="AU20" s="45"/>
-      <c r="AV20" s="45"/>
-      <c r="AW20" s="45"/>
-      <c r="AX20" s="45"/>
-      <c r="AY20" s="45"/>
-      <c r="AZ20" s="45"/>
-      <c r="BA20" s="45"/>
-      <c r="BB20" s="45"/>
-      <c r="BC20" s="45"/>
-      <c r="BD20" s="45"/>
-      <c r="BE20" s="45"/>
-      <c r="BF20" s="45"/>
-      <c r="BG20" s="45"/>
-      <c r="BH20" s="46"/>
-      <c r="BI20" s="53" t="s">
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="49"/>
+      <c r="AA20" s="49"/>
+      <c r="AB20" s="49"/>
+      <c r="AC20" s="49"/>
+      <c r="AD20" s="49"/>
+      <c r="AE20" s="49"/>
+      <c r="AF20" s="49"/>
+      <c r="AG20" s="49"/>
+      <c r="AH20" s="49"/>
+      <c r="AI20" s="49"/>
+      <c r="AJ20" s="49"/>
+      <c r="AK20" s="49"/>
+      <c r="AL20" s="49"/>
+      <c r="AM20" s="49"/>
+      <c r="AN20" s="49"/>
+      <c r="AO20" s="49"/>
+      <c r="AP20" s="49"/>
+      <c r="AQ20" s="49"/>
+      <c r="AR20" s="49"/>
+      <c r="AS20" s="49"/>
+      <c r="AT20" s="49"/>
+      <c r="AU20" s="49"/>
+      <c r="AV20" s="49"/>
+      <c r="AW20" s="49"/>
+      <c r="AX20" s="49"/>
+      <c r="AY20" s="49"/>
+      <c r="AZ20" s="49"/>
+      <c r="BA20" s="49"/>
+      <c r="BB20" s="49"/>
+      <c r="BC20" s="49"/>
+      <c r="BD20" s="49"/>
+      <c r="BE20" s="49"/>
+      <c r="BF20" s="49"/>
+      <c r="BG20" s="49"/>
+      <c r="BH20" s="50"/>
+      <c r="BI20" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="BJ20" s="54"/>
-      <c r="BK20" s="54"/>
-      <c r="BL20" s="54"/>
-      <c r="BM20" s="54"/>
-      <c r="BN20" s="54"/>
-      <c r="BO20" s="54"/>
-      <c r="BP20" s="54"/>
-      <c r="BQ20" s="54"/>
-      <c r="BR20" s="54"/>
+      <c r="BJ20" s="58"/>
+      <c r="BK20" s="58"/>
+      <c r="BL20" s="58"/>
+      <c r="BM20" s="58"/>
+      <c r="BN20" s="58"/>
+      <c r="BO20" s="58"/>
+      <c r="BP20" s="58"/>
+      <c r="BQ20" s="58"/>
+      <c r="BR20" s="58"/>
       <c r="XEV20" s="21"/>
       <c r="XEW20" s="21"/>
       <c r="XEX20" s="21"/>
@@ -9024,86 +8002,86 @@
       <c r="XEZ20" s="21"/>
     </row>
     <row r="21" spans="1:70 16376:16380" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="44" t="s">
+      <c r="A21" s="63"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="45"/>
-      <c r="AC21" s="45"/>
-      <c r="AD21" s="45"/>
-      <c r="AE21" s="45"/>
-      <c r="AF21" s="45"/>
-      <c r="AG21" s="45"/>
-      <c r="AH21" s="45"/>
-      <c r="AI21" s="45"/>
-      <c r="AJ21" s="45"/>
-      <c r="AK21" s="45"/>
-      <c r="AL21" s="45"/>
-      <c r="AM21" s="45"/>
-      <c r="AN21" s="45"/>
-      <c r="AO21" s="45"/>
-      <c r="AP21" s="45"/>
-      <c r="AQ21" s="45"/>
-      <c r="AR21" s="45"/>
-      <c r="AS21" s="45"/>
-      <c r="AT21" s="45"/>
-      <c r="AU21" s="46"/>
-      <c r="AV21" s="47" t="s">
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="49"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="49"/>
+      <c r="AC21" s="49"/>
+      <c r="AD21" s="49"/>
+      <c r="AE21" s="49"/>
+      <c r="AF21" s="49"/>
+      <c r="AG21" s="49"/>
+      <c r="AH21" s="49"/>
+      <c r="AI21" s="49"/>
+      <c r="AJ21" s="49"/>
+      <c r="AK21" s="49"/>
+      <c r="AL21" s="49"/>
+      <c r="AM21" s="49"/>
+      <c r="AN21" s="49"/>
+      <c r="AO21" s="49"/>
+      <c r="AP21" s="49"/>
+      <c r="AQ21" s="49"/>
+      <c r="AR21" s="49"/>
+      <c r="AS21" s="49"/>
+      <c r="AT21" s="49"/>
+      <c r="AU21" s="50"/>
+      <c r="AV21" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="AW21" s="47"/>
-      <c r="AX21" s="47"/>
-      <c r="AY21" s="47"/>
-      <c r="AZ21" s="47"/>
-      <c r="BA21" s="47"/>
-      <c r="BB21" s="47" t="s">
+      <c r="AW21" s="51"/>
+      <c r="AX21" s="51"/>
+      <c r="AY21" s="51"/>
+      <c r="AZ21" s="51"/>
+      <c r="BA21" s="51"/>
+      <c r="BB21" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="BC21" s="47"/>
-      <c r="BD21" s="47"/>
-      <c r="BE21" s="47"/>
-      <c r="BF21" s="47"/>
-      <c r="BG21" s="42" t="s">
+      <c r="BC21" s="51"/>
+      <c r="BD21" s="51"/>
+      <c r="BE21" s="51"/>
+      <c r="BF21" s="51"/>
+      <c r="BG21" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="BH21" s="42" t="s">
+      <c r="BH21" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="BI21" s="54"/>
-      <c r="BJ21" s="54"/>
-      <c r="BK21" s="54"/>
-      <c r="BL21" s="54"/>
-      <c r="BM21" s="54"/>
-      <c r="BN21" s="54"/>
-      <c r="BO21" s="54"/>
-      <c r="BP21" s="54"/>
-      <c r="BQ21" s="54"/>
-      <c r="BR21" s="54"/>
+      <c r="BI21" s="58"/>
+      <c r="BJ21" s="58"/>
+      <c r="BK21" s="58"/>
+      <c r="BL21" s="58"/>
+      <c r="BM21" s="58"/>
+      <c r="BN21" s="58"/>
+      <c r="BO21" s="58"/>
+      <c r="BP21" s="58"/>
+      <c r="BQ21" s="58"/>
+      <c r="BR21" s="58"/>
       <c r="XEV21" s="21"/>
       <c r="XEW21" s="21"/>
       <c r="XEX21" s="21"/>
@@ -9111,134 +8089,134 @@
       <c r="XEZ21" s="21"/>
     </row>
     <row r="22" spans="1:70 16376:16380" ht="65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="44" t="s">
+      <c r="A22" s="63"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="47" t="s">
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47" t="s">
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47" t="s">
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="47" t="s">
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="47"/>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="47"/>
-      <c r="AB22" s="47" t="s">
+      <c r="X22" s="51"/>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="51"/>
+      <c r="AA22" s="51"/>
+      <c r="AB22" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="AC22" s="47"/>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="47"/>
-      <c r="AF22" s="47"/>
-      <c r="AG22" s="47" t="s">
+      <c r="AC22" s="51"/>
+      <c r="AD22" s="51"/>
+      <c r="AE22" s="51"/>
+      <c r="AF22" s="51"/>
+      <c r="AG22" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="AH22" s="47"/>
-      <c r="AI22" s="47"/>
-      <c r="AJ22" s="47"/>
-      <c r="AK22" s="47"/>
-      <c r="AL22" s="47" t="s">
+      <c r="AH22" s="51"/>
+      <c r="AI22" s="51"/>
+      <c r="AJ22" s="51"/>
+      <c r="AK22" s="51"/>
+      <c r="AL22" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="AM22" s="47"/>
-      <c r="AN22" s="47"/>
-      <c r="AO22" s="47"/>
-      <c r="AP22" s="47"/>
-      <c r="AQ22" s="47" t="s">
+      <c r="AM22" s="51"/>
+      <c r="AN22" s="51"/>
+      <c r="AO22" s="51"/>
+      <c r="AP22" s="51"/>
+      <c r="AQ22" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="AR22" s="47"/>
-      <c r="AS22" s="47"/>
-      <c r="AT22" s="47"/>
-      <c r="AU22" s="47"/>
-      <c r="AV22" s="42" t="s">
+      <c r="AR22" s="51"/>
+      <c r="AS22" s="51"/>
+      <c r="AT22" s="51"/>
+      <c r="AU22" s="51"/>
+      <c r="AV22" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="AW22" s="42" t="s">
+      <c r="AW22" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="AX22" s="42" t="s">
+      <c r="AX22" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="AY22" s="42" t="s">
+      <c r="AY22" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AZ22" s="42" t="s">
+      <c r="AZ22" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="BA22" s="42" t="s">
+      <c r="BA22" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="BB22" s="42" t="s">
+      <c r="BB22" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="BC22" s="42" t="s">
+      <c r="BC22" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="BD22" s="42" t="s">
+      <c r="BD22" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="BE22" s="42" t="s">
+      <c r="BE22" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="BF22" s="42" t="s">
+      <c r="BF22" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="BG22" s="49"/>
-      <c r="BH22" s="49"/>
-      <c r="BI22" s="48" t="s">
+      <c r="BG22" s="53"/>
+      <c r="BH22" s="53"/>
+      <c r="BI22" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="BJ22" s="42" t="s">
+      <c r="BJ22" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="BK22" s="42" t="s">
+      <c r="BK22" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="BL22" s="42" t="s">
+      <c r="BL22" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="BM22" s="42" t="s">
+      <c r="BM22" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="BN22" s="42" t="s">
+      <c r="BN22" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="BO22" s="42" t="s">
+      <c r="BO22" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="BP22" s="42" t="s">
+      <c r="BP22" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="BQ22" s="42" t="s">
+      <c r="BQ22" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="BR22" s="42" t="s">
+      <c r="BR22" s="46" t="s">
         <v>86</v>
       </c>
       <c r="XEV22" s="21"/>
@@ -9248,8 +8226,8 @@
       <c r="XEZ22" s="21"/>
     </row>
     <row r="23" spans="1:70 16376:16380" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
-      <c r="B23" s="63"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="67"/>
       <c r="C23" s="13" t="s">
         <v>48</v>
       </c>
@@ -9385,29 +8363,29 @@
       <c r="AU23" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="AV23" s="43"/>
-      <c r="AW23" s="43"/>
-      <c r="AX23" s="43"/>
-      <c r="AY23" s="43"/>
-      <c r="AZ23" s="43"/>
-      <c r="BA23" s="43"/>
-      <c r="BB23" s="43"/>
-      <c r="BC23" s="43"/>
-      <c r="BD23" s="43"/>
-      <c r="BE23" s="43"/>
-      <c r="BF23" s="43"/>
-      <c r="BG23" s="43"/>
-      <c r="BH23" s="43"/>
-      <c r="BI23" s="43"/>
-      <c r="BJ23" s="43"/>
-      <c r="BK23" s="43"/>
-      <c r="BL23" s="43"/>
-      <c r="BM23" s="43"/>
-      <c r="BN23" s="43"/>
-      <c r="BO23" s="43"/>
-      <c r="BP23" s="43"/>
-      <c r="BQ23" s="43"/>
-      <c r="BR23" s="43"/>
+      <c r="AV23" s="47"/>
+      <c r="AW23" s="47"/>
+      <c r="AX23" s="47"/>
+      <c r="AY23" s="47"/>
+      <c r="AZ23" s="47"/>
+      <c r="BA23" s="47"/>
+      <c r="BB23" s="47"/>
+      <c r="BC23" s="47"/>
+      <c r="BD23" s="47"/>
+      <c r="BE23" s="47"/>
+      <c r="BF23" s="47"/>
+      <c r="BG23" s="47"/>
+      <c r="BH23" s="47"/>
+      <c r="BI23" s="47"/>
+      <c r="BJ23" s="47"/>
+      <c r="BK23" s="47"/>
+      <c r="BL23" s="47"/>
+      <c r="BM23" s="47"/>
+      <c r="BN23" s="47"/>
+      <c r="BO23" s="47"/>
+      <c r="BP23" s="47"/>
+      <c r="BQ23" s="47"/>
+      <c r="BR23" s="47"/>
       <c r="XEV23" s="21"/>
       <c r="XEW23" s="21"/>
       <c r="XEX23" s="21"/>
@@ -10448,15 +9426,15 @@
     <mergeCell ref="AA4:BN4"/>
     <mergeCell ref="AK5:AO5"/>
     <mergeCell ref="AP5:AT5"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
     <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="X5:X6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="V5:V6"/>
     <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
     <mergeCell ref="K3:O4"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="A3:A6"/>
@@ -10469,10 +9447,10 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
     <mergeCell ref="AY22:AY23"/>
     <mergeCell ref="AZ22:AZ23"/>
     <mergeCell ref="BA22:BA23"/>
@@ -10538,7 +9516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E233EF3-8384-4E96-9AA1-CE3E1C2F52E8}">
   <dimension ref="A1:XEZ34"/>
   <sheetViews>
-    <sheetView topLeftCell="H4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24:BY24"/>
     </sheetView>
   </sheetViews>
@@ -10554,417 +9532,417 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:77 16380:16380" ht="17.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56"/>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56"/>
-      <c r="AN1" s="56"/>
-      <c r="AO1" s="56"/>
-      <c r="AP1" s="56"/>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="56"/>
-      <c r="AV1" s="56"/>
-      <c r="AW1" s="56"/>
-      <c r="AX1" s="56"/>
-      <c r="AY1" s="56"/>
-      <c r="AZ1" s="56"/>
-      <c r="BA1" s="56"/>
-      <c r="BB1" s="56"/>
-      <c r="BC1" s="56"/>
-      <c r="BD1" s="56"/>
-      <c r="BE1" s="56"/>
-      <c r="BF1" s="56"/>
-      <c r="BG1" s="56"/>
-      <c r="BH1" s="56"/>
-      <c r="BI1" s="56"/>
-      <c r="BJ1" s="56"/>
-      <c r="BK1" s="56"/>
-      <c r="BL1" s="56"/>
-      <c r="BM1" s="56"/>
-      <c r="BN1" s="56"/>
-      <c r="BO1" s="56"/>
-      <c r="BP1" s="56"/>
-      <c r="BQ1" s="56"/>
-      <c r="BR1" s="56"/>
-      <c r="BS1" s="56"/>
-      <c r="BT1" s="56"/>
-      <c r="BU1" s="56"/>
-      <c r="BV1" s="56"/>
-      <c r="BW1" s="56"/>
-      <c r="BX1" s="56"/>
-      <c r="BY1" s="56"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60"/>
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60"/>
+      <c r="BD1" s="60"/>
+      <c r="BE1" s="60"/>
+      <c r="BF1" s="60"/>
+      <c r="BG1" s="60"/>
+      <c r="BH1" s="60"/>
+      <c r="BI1" s="60"/>
+      <c r="BJ1" s="60"/>
+      <c r="BK1" s="60"/>
+      <c r="BL1" s="60"/>
+      <c r="BM1" s="60"/>
+      <c r="BN1" s="60"/>
+      <c r="BO1" s="60"/>
+      <c r="BP1" s="60"/>
+      <c r="BQ1" s="60"/>
+      <c r="BR1" s="60"/>
+      <c r="BS1" s="60"/>
+      <c r="BT1" s="60"/>
+      <c r="BU1" s="60"/>
+      <c r="BV1" s="60"/>
+      <c r="BW1" s="60"/>
+      <c r="BX1" s="60"/>
+      <c r="BY1" s="60"/>
     </row>
     <row r="3" spans="1:77 16380:16380" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="47" t="s">
+      <c r="E3" s="61"/>
+      <c r="F3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="57" t="s">
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="44" t="s">
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="45"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="45"/>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="45"/>
-      <c r="BC3" s="45"/>
-      <c r="BD3" s="45"/>
-      <c r="BE3" s="45"/>
-      <c r="BF3" s="45"/>
-      <c r="BG3" s="45"/>
-      <c r="BH3" s="45"/>
-      <c r="BI3" s="45"/>
-      <c r="BJ3" s="45"/>
-      <c r="BK3" s="45"/>
-      <c r="BL3" s="45"/>
-      <c r="BM3" s="45"/>
-      <c r="BN3" s="45"/>
-      <c r="BO3" s="45"/>
-      <c r="BP3" s="45"/>
-      <c r="BQ3" s="45"/>
-      <c r="BR3" s="45"/>
-      <c r="BS3" s="46"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="49"/>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="49"/>
+      <c r="AS3" s="49"/>
+      <c r="AT3" s="49"/>
+      <c r="AU3" s="49"/>
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="49"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="49"/>
+      <c r="BC3" s="49"/>
+      <c r="BD3" s="49"/>
+      <c r="BE3" s="49"/>
+      <c r="BF3" s="49"/>
+      <c r="BG3" s="49"/>
+      <c r="BH3" s="49"/>
+      <c r="BI3" s="49"/>
+      <c r="BJ3" s="49"/>
+      <c r="BK3" s="49"/>
+      <c r="BL3" s="49"/>
+      <c r="BM3" s="49"/>
+      <c r="BN3" s="49"/>
+      <c r="BO3" s="49"/>
+      <c r="BP3" s="49"/>
+      <c r="BQ3" s="49"/>
+      <c r="BR3" s="49"/>
+      <c r="BS3" s="50"/>
       <c r="XEZ3" s="21"/>
     </row>
     <row r="4" spans="1:77 16380:16380" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="44" t="s">
+      <c r="A4" s="63"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="47" t="s">
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="47"/>
-      <c r="AH4" s="47"/>
-      <c r="AI4" s="47"/>
-      <c r="AJ4" s="47"/>
-      <c r="AK4" s="47"/>
-      <c r="AL4" s="47"/>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="47"/>
-      <c r="AO4" s="47"/>
-      <c r="AP4" s="47"/>
-      <c r="AQ4" s="47"/>
-      <c r="AR4" s="47"/>
-      <c r="AS4" s="47"/>
-      <c r="AT4" s="47"/>
-      <c r="AU4" s="47"/>
-      <c r="AV4" s="47"/>
-      <c r="AW4" s="47"/>
-      <c r="AX4" s="47"/>
-      <c r="AY4" s="47"/>
-      <c r="AZ4" s="47"/>
-      <c r="BA4" s="47"/>
-      <c r="BB4" s="47"/>
-      <c r="BC4" s="47"/>
-      <c r="BD4" s="47"/>
-      <c r="BE4" s="47"/>
-      <c r="BF4" s="47"/>
-      <c r="BG4" s="47"/>
-      <c r="BH4" s="47"/>
-      <c r="BI4" s="47"/>
-      <c r="BJ4" s="47"/>
-      <c r="BK4" s="47"/>
-      <c r="BL4" s="47"/>
-      <c r="BM4" s="47"/>
-      <c r="BN4" s="47"/>
-      <c r="BO4" s="47"/>
-      <c r="BP4" s="47"/>
-      <c r="BQ4" s="47"/>
-      <c r="BR4" s="47"/>
-      <c r="BS4" s="47"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="51"/>
+      <c r="AJ4" s="51"/>
+      <c r="AK4" s="51"/>
+      <c r="AL4" s="51"/>
+      <c r="AM4" s="51"/>
+      <c r="AN4" s="51"/>
+      <c r="AO4" s="51"/>
+      <c r="AP4" s="51"/>
+      <c r="AQ4" s="51"/>
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="51"/>
+      <c r="AV4" s="51"/>
+      <c r="AW4" s="51"/>
+      <c r="AX4" s="51"/>
+      <c r="AY4" s="51"/>
+      <c r="AZ4" s="51"/>
+      <c r="BA4" s="51"/>
+      <c r="BB4" s="51"/>
+      <c r="BC4" s="51"/>
+      <c r="BD4" s="51"/>
+      <c r="BE4" s="51"/>
+      <c r="BF4" s="51"/>
+      <c r="BG4" s="51"/>
+      <c r="BH4" s="51"/>
+      <c r="BI4" s="51"/>
+      <c r="BJ4" s="51"/>
+      <c r="BK4" s="51"/>
+      <c r="BL4" s="51"/>
+      <c r="BM4" s="51"/>
+      <c r="BN4" s="51"/>
+      <c r="BO4" s="51"/>
+      <c r="BP4" s="51"/>
+      <c r="BQ4" s="51"/>
+      <c r="BR4" s="51"/>
+      <c r="BS4" s="51"/>
       <c r="XEZ4" s="21"/>
     </row>
     <row r="5" spans="1:77 16380:16380" ht="65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="58" t="s">
+      <c r="A5" s="63"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="61" t="s">
+      <c r="K5" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="61" t="s">
+      <c r="L5" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="61" t="s">
+      <c r="M5" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="61" t="s">
+      <c r="N5" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="61" t="s">
+      <c r="O5" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="42" t="s">
+      <c r="P5" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="42" t="s">
+      <c r="Q5" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="42" t="s">
+      <c r="R5" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="42" t="s">
+      <c r="S5" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="42" t="s">
+      <c r="T5" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="42" t="s">
+      <c r="U5" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="42" t="s">
+      <c r="V5" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="W5" s="42" t="s">
+      <c r="W5" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="X5" s="42" t="s">
+      <c r="X5" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="Y5" s="42" t="s">
+      <c r="Y5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="42" t="s">
+      <c r="Z5" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="AA5" s="44" t="s">
+      <c r="AA5" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="44" t="s">
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="46"/>
-      <c r="AK5" s="44" t="s">
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="49"/>
+      <c r="AJ5" s="50"/>
+      <c r="AK5" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="46"/>
-      <c r="AP5" s="44" t="s">
+      <c r="AL5" s="49"/>
+      <c r="AM5" s="49"/>
+      <c r="AN5" s="49"/>
+      <c r="AO5" s="50"/>
+      <c r="AP5" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="AQ5" s="45"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="46"/>
-      <c r="AU5" s="44" t="s">
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="49"/>
+      <c r="AS5" s="49"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AV5" s="45"/>
-      <c r="AW5" s="45"/>
-      <c r="AX5" s="45"/>
-      <c r="AY5" s="46"/>
-      <c r="AZ5" s="44" t="s">
+      <c r="AV5" s="49"/>
+      <c r="AW5" s="49"/>
+      <c r="AX5" s="49"/>
+      <c r="AY5" s="50"/>
+      <c r="AZ5" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="BA5" s="45"/>
-      <c r="BB5" s="45"/>
-      <c r="BC5" s="45"/>
-      <c r="BD5" s="46"/>
-      <c r="BE5" s="47" t="s">
+      <c r="BA5" s="49"/>
+      <c r="BB5" s="49"/>
+      <c r="BC5" s="49"/>
+      <c r="BD5" s="50"/>
+      <c r="BE5" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="BF5" s="47"/>
-      <c r="BG5" s="47"/>
-      <c r="BH5" s="47"/>
-      <c r="BI5" s="47"/>
-      <c r="BJ5" s="44" t="s">
+      <c r="BF5" s="51"/>
+      <c r="BG5" s="51"/>
+      <c r="BH5" s="51"/>
+      <c r="BI5" s="51"/>
+      <c r="BJ5" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="BK5" s="45"/>
-      <c r="BL5" s="45"/>
-      <c r="BM5" s="45"/>
-      <c r="BN5" s="46"/>
-      <c r="BO5" s="44" t="s">
+      <c r="BK5" s="49"/>
+      <c r="BL5" s="49"/>
+      <c r="BM5" s="49"/>
+      <c r="BN5" s="50"/>
+      <c r="BO5" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="BP5" s="45"/>
-      <c r="BQ5" s="45"/>
-      <c r="BR5" s="45"/>
-      <c r="BS5" s="46"/>
+      <c r="BP5" s="49"/>
+      <c r="BQ5" s="49"/>
+      <c r="BR5" s="49"/>
+      <c r="BS5" s="50"/>
       <c r="XEZ5" s="21"/>
     </row>
     <row r="6" spans="1:77 16380:16380" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
       <c r="AA6" s="13" t="s">
         <v>48</v>
       </c>
@@ -12099,93 +11077,93 @@
       <c r="XEZ17" s="21"/>
     </row>
     <row r="20" spans="1:77 16371:16380" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="45"/>
-      <c r="AD20" s="45"/>
-      <c r="AE20" s="45"/>
-      <c r="AF20" s="45"/>
-      <c r="AG20" s="45"/>
-      <c r="AH20" s="45"/>
-      <c r="AI20" s="45"/>
-      <c r="AJ20" s="45"/>
-      <c r="AK20" s="45"/>
-      <c r="AL20" s="45"/>
-      <c r="AM20" s="45"/>
-      <c r="AN20" s="45"/>
-      <c r="AO20" s="45"/>
-      <c r="AP20" s="45"/>
-      <c r="AQ20" s="45"/>
-      <c r="AR20" s="45"/>
-      <c r="AS20" s="45"/>
-      <c r="AT20" s="45"/>
-      <c r="AU20" s="45"/>
-      <c r="AV20" s="45"/>
-      <c r="AW20" s="45"/>
-      <c r="AX20" s="45"/>
-      <c r="AY20" s="45"/>
-      <c r="AZ20" s="45"/>
-      <c r="BA20" s="45"/>
-      <c r="BB20" s="45"/>
-      <c r="BC20" s="46"/>
-      <c r="BD20" s="53" t="s">
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="49"/>
+      <c r="AA20" s="49"/>
+      <c r="AB20" s="49"/>
+      <c r="AC20" s="49"/>
+      <c r="AD20" s="49"/>
+      <c r="AE20" s="49"/>
+      <c r="AF20" s="49"/>
+      <c r="AG20" s="49"/>
+      <c r="AH20" s="49"/>
+      <c r="AI20" s="49"/>
+      <c r="AJ20" s="49"/>
+      <c r="AK20" s="49"/>
+      <c r="AL20" s="49"/>
+      <c r="AM20" s="49"/>
+      <c r="AN20" s="49"/>
+      <c r="AO20" s="49"/>
+      <c r="AP20" s="49"/>
+      <c r="AQ20" s="49"/>
+      <c r="AR20" s="49"/>
+      <c r="AS20" s="49"/>
+      <c r="AT20" s="49"/>
+      <c r="AU20" s="49"/>
+      <c r="AV20" s="49"/>
+      <c r="AW20" s="49"/>
+      <c r="AX20" s="49"/>
+      <c r="AY20" s="49"/>
+      <c r="AZ20" s="49"/>
+      <c r="BA20" s="49"/>
+      <c r="BB20" s="49"/>
+      <c r="BC20" s="50"/>
+      <c r="BD20" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="BE20" s="54"/>
-      <c r="BF20" s="54"/>
-      <c r="BG20" s="54"/>
-      <c r="BH20" s="54"/>
-      <c r="BI20" s="54"/>
-      <c r="BJ20" s="54"/>
-      <c r="BK20" s="54"/>
-      <c r="BL20" s="54"/>
-      <c r="BM20" s="54"/>
-      <c r="BN20" s="54" t="s">
+      <c r="BE20" s="58"/>
+      <c r="BF20" s="58"/>
+      <c r="BG20" s="58"/>
+      <c r="BH20" s="58"/>
+      <c r="BI20" s="58"/>
+      <c r="BJ20" s="58"/>
+      <c r="BK20" s="58"/>
+      <c r="BL20" s="58"/>
+      <c r="BM20" s="58"/>
+      <c r="BN20" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="BO20" s="54"/>
-      <c r="BP20" s="54"/>
-      <c r="BQ20" s="54"/>
-      <c r="BR20" s="54"/>
-      <c r="BS20" s="54"/>
-      <c r="BT20" s="54"/>
-      <c r="BU20" s="54"/>
-      <c r="BV20" s="54"/>
-      <c r="BW20" s="54"/>
-      <c r="BX20" s="54"/>
-      <c r="BY20" s="54"/>
+      <c r="BO20" s="58"/>
+      <c r="BP20" s="58"/>
+      <c r="BQ20" s="58"/>
+      <c r="BR20" s="58"/>
+      <c r="BS20" s="58"/>
+      <c r="BT20" s="58"/>
+      <c r="BU20" s="58"/>
+      <c r="BV20" s="58"/>
+      <c r="BW20" s="58"/>
+      <c r="BX20" s="58"/>
+      <c r="BY20" s="58"/>
       <c r="XEQ20" s="21"/>
       <c r="XER20" s="21"/>
       <c r="XES20" s="21"/>
@@ -12198,93 +11176,93 @@
       <c r="XEZ20" s="21"/>
     </row>
     <row r="21" spans="1:77 16371:16380" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="44" t="s">
+      <c r="A21" s="63"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="45"/>
-      <c r="AC21" s="45"/>
-      <c r="AD21" s="45"/>
-      <c r="AE21" s="45"/>
-      <c r="AF21" s="45"/>
-      <c r="AG21" s="45"/>
-      <c r="AH21" s="45"/>
-      <c r="AI21" s="45"/>
-      <c r="AJ21" s="45"/>
-      <c r="AK21" s="45"/>
-      <c r="AL21" s="45"/>
-      <c r="AM21" s="45"/>
-      <c r="AN21" s="45"/>
-      <c r="AO21" s="45"/>
-      <c r="AP21" s="46"/>
-      <c r="AQ21" s="47" t="s">
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="49"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="49"/>
+      <c r="AC21" s="49"/>
+      <c r="AD21" s="49"/>
+      <c r="AE21" s="49"/>
+      <c r="AF21" s="49"/>
+      <c r="AG21" s="49"/>
+      <c r="AH21" s="49"/>
+      <c r="AI21" s="49"/>
+      <c r="AJ21" s="49"/>
+      <c r="AK21" s="49"/>
+      <c r="AL21" s="49"/>
+      <c r="AM21" s="49"/>
+      <c r="AN21" s="49"/>
+      <c r="AO21" s="49"/>
+      <c r="AP21" s="50"/>
+      <c r="AQ21" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="AR21" s="47"/>
-      <c r="AS21" s="47"/>
-      <c r="AT21" s="47"/>
-      <c r="AU21" s="47"/>
-      <c r="AV21" s="47"/>
-      <c r="AW21" s="47" t="s">
+      <c r="AR21" s="51"/>
+      <c r="AS21" s="51"/>
+      <c r="AT21" s="51"/>
+      <c r="AU21" s="51"/>
+      <c r="AV21" s="51"/>
+      <c r="AW21" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="AX21" s="47"/>
-      <c r="AY21" s="47"/>
-      <c r="AZ21" s="47"/>
-      <c r="BA21" s="47"/>
-      <c r="BB21" s="42" t="s">
+      <c r="AX21" s="51"/>
+      <c r="AY21" s="51"/>
+      <c r="AZ21" s="51"/>
+      <c r="BA21" s="51"/>
+      <c r="BB21" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="BC21" s="42" t="s">
+      <c r="BC21" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="BD21" s="54"/>
-      <c r="BE21" s="54"/>
-      <c r="BF21" s="54"/>
-      <c r="BG21" s="54"/>
-      <c r="BH21" s="54"/>
-      <c r="BI21" s="54"/>
-      <c r="BJ21" s="54"/>
-      <c r="BK21" s="54"/>
-      <c r="BL21" s="54"/>
-      <c r="BM21" s="54"/>
-      <c r="BN21" s="54"/>
-      <c r="BO21" s="54"/>
-      <c r="BP21" s="54"/>
-      <c r="BQ21" s="54"/>
-      <c r="BR21" s="54"/>
-      <c r="BS21" s="54"/>
-      <c r="BT21" s="54"/>
-      <c r="BU21" s="54"/>
-      <c r="BV21" s="54"/>
-      <c r="BW21" s="54"/>
-      <c r="BX21" s="54"/>
-      <c r="BY21" s="54"/>
+      <c r="BD21" s="58"/>
+      <c r="BE21" s="58"/>
+      <c r="BF21" s="58"/>
+      <c r="BG21" s="58"/>
+      <c r="BH21" s="58"/>
+      <c r="BI21" s="58"/>
+      <c r="BJ21" s="58"/>
+      <c r="BK21" s="58"/>
+      <c r="BL21" s="58"/>
+      <c r="BM21" s="58"/>
+      <c r="BN21" s="58"/>
+      <c r="BO21" s="58"/>
+      <c r="BP21" s="58"/>
+      <c r="BQ21" s="58"/>
+      <c r="BR21" s="58"/>
+      <c r="BS21" s="58"/>
+      <c r="BT21" s="58"/>
+      <c r="BU21" s="58"/>
+      <c r="BV21" s="58"/>
+      <c r="BW21" s="58"/>
+      <c r="BX21" s="58"/>
+      <c r="BY21" s="58"/>
       <c r="XEQ21" s="21"/>
       <c r="XER21" s="21"/>
       <c r="XES21" s="21"/>
@@ -12297,163 +11275,163 @@
       <c r="XEZ21" s="21"/>
     </row>
     <row r="22" spans="1:77 16371:16380" ht="65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="47" t="s">
+      <c r="A22" s="63"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47" t="s">
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47" t="s">
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47" t="s">
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="47" t="s">
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="47"/>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="47"/>
-      <c r="AB22" s="47" t="s">
+      <c r="X22" s="51"/>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="51"/>
+      <c r="AA22" s="51"/>
+      <c r="AB22" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="AC22" s="47"/>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="47"/>
-      <c r="AF22" s="47"/>
-      <c r="AG22" s="47" t="s">
+      <c r="AC22" s="51"/>
+      <c r="AD22" s="51"/>
+      <c r="AE22" s="51"/>
+      <c r="AF22" s="51"/>
+      <c r="AG22" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="AH22" s="47"/>
-      <c r="AI22" s="47"/>
-      <c r="AJ22" s="47"/>
-      <c r="AK22" s="47"/>
-      <c r="AL22" s="47" t="s">
+      <c r="AH22" s="51"/>
+      <c r="AI22" s="51"/>
+      <c r="AJ22" s="51"/>
+      <c r="AK22" s="51"/>
+      <c r="AL22" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="AM22" s="47"/>
-      <c r="AN22" s="47"/>
-      <c r="AO22" s="47"/>
-      <c r="AP22" s="47"/>
-      <c r="AQ22" s="42" t="s">
+      <c r="AM22" s="51"/>
+      <c r="AN22" s="51"/>
+      <c r="AO22" s="51"/>
+      <c r="AP22" s="51"/>
+      <c r="AQ22" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="AR22" s="42" t="s">
+      <c r="AR22" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="AS22" s="42" t="s">
+      <c r="AS22" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="AT22" s="42" t="s">
+      <c r="AT22" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AU22" s="42" t="s">
+      <c r="AU22" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="AV22" s="42" t="s">
+      <c r="AV22" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="AW22" s="42" t="s">
+      <c r="AW22" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="AX22" s="42" t="s">
+      <c r="AX22" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AY22" s="42" t="s">
+      <c r="AY22" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="AZ22" s="42" t="s">
+      <c r="AZ22" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="BA22" s="42" t="s">
+      <c r="BA22" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="BB22" s="49"/>
-      <c r="BC22" s="49"/>
-      <c r="BD22" s="48" t="s">
+      <c r="BB22" s="53"/>
+      <c r="BC22" s="53"/>
+      <c r="BD22" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="BE22" s="42" t="s">
+      <c r="BE22" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="BF22" s="42" t="s">
+      <c r="BF22" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="BG22" s="42" t="s">
+      <c r="BG22" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="BH22" s="42" t="s">
+      <c r="BH22" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="BI22" s="42" t="s">
+      <c r="BI22" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="BJ22" s="42" t="s">
+      <c r="BJ22" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="BK22" s="42" t="s">
+      <c r="BK22" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="BL22" s="42" t="s">
+      <c r="BL22" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="BM22" s="42" t="s">
+      <c r="BM22" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="BN22" s="42" t="s">
+      <c r="BN22" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="BO22" s="42" t="s">
+      <c r="BO22" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="BP22" s="42" t="s">
+      <c r="BP22" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="BQ22" s="42" t="s">
+      <c r="BQ22" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="BR22" s="42" t="s">
+      <c r="BR22" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="BS22" s="42" t="s">
+      <c r="BS22" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="BT22" s="42" t="s">
+      <c r="BT22" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="BU22" s="42" t="s">
+      <c r="BU22" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="BV22" s="42" t="s">
+      <c r="BV22" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="BW22" s="42" t="s">
+      <c r="BW22" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="BX22" s="42" t="s">
+      <c r="BX22" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="BY22" s="47" t="s">
+      <c r="BY22" s="51" t="s">
         <v>39</v>
       </c>
       <c r="XEQ22" s="21"/>
@@ -12468,8 +11446,8 @@
       <c r="XEZ22" s="21"/>
     </row>
     <row r="23" spans="1:77 16371:16380" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
-      <c r="B23" s="63"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="67"/>
       <c r="C23" s="13" t="s">
         <v>48</v>
       </c>
@@ -12590,41 +11568,41 @@
       <c r="AP23" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="AQ23" s="43"/>
-      <c r="AR23" s="43"/>
-      <c r="AS23" s="43"/>
-      <c r="AT23" s="43"/>
-      <c r="AU23" s="43"/>
-      <c r="AV23" s="43"/>
-      <c r="AW23" s="43"/>
-      <c r="AX23" s="43"/>
-      <c r="AY23" s="43"/>
-      <c r="AZ23" s="43"/>
-      <c r="BA23" s="43"/>
-      <c r="BB23" s="43"/>
-      <c r="BC23" s="43"/>
-      <c r="BD23" s="43"/>
-      <c r="BE23" s="43"/>
-      <c r="BF23" s="43"/>
-      <c r="BG23" s="43"/>
-      <c r="BH23" s="43"/>
-      <c r="BI23" s="43"/>
-      <c r="BJ23" s="43"/>
-      <c r="BK23" s="43"/>
-      <c r="BL23" s="43"/>
-      <c r="BM23" s="43"/>
-      <c r="BN23" s="43"/>
-      <c r="BO23" s="43"/>
-      <c r="BP23" s="43"/>
-      <c r="BQ23" s="43"/>
-      <c r="BR23" s="43"/>
-      <c r="BS23" s="43"/>
-      <c r="BT23" s="43"/>
-      <c r="BU23" s="43"/>
-      <c r="BV23" s="43"/>
-      <c r="BW23" s="43"/>
-      <c r="BX23" s="43"/>
-      <c r="BY23" s="47"/>
+      <c r="AQ23" s="47"/>
+      <c r="AR23" s="47"/>
+      <c r="AS23" s="47"/>
+      <c r="AT23" s="47"/>
+      <c r="AU23" s="47"/>
+      <c r="AV23" s="47"/>
+      <c r="AW23" s="47"/>
+      <c r="AX23" s="47"/>
+      <c r="AY23" s="47"/>
+      <c r="AZ23" s="47"/>
+      <c r="BA23" s="47"/>
+      <c r="BB23" s="47"/>
+      <c r="BC23" s="47"/>
+      <c r="BD23" s="47"/>
+      <c r="BE23" s="47"/>
+      <c r="BF23" s="47"/>
+      <c r="BG23" s="47"/>
+      <c r="BH23" s="47"/>
+      <c r="BI23" s="47"/>
+      <c r="BJ23" s="47"/>
+      <c r="BK23" s="47"/>
+      <c r="BL23" s="47"/>
+      <c r="BM23" s="47"/>
+      <c r="BN23" s="47"/>
+      <c r="BO23" s="47"/>
+      <c r="BP23" s="47"/>
+      <c r="BQ23" s="47"/>
+      <c r="BR23" s="47"/>
+      <c r="BS23" s="47"/>
+      <c r="BT23" s="47"/>
+      <c r="BU23" s="47"/>
+      <c r="BV23" s="47"/>
+      <c r="BW23" s="47"/>
+      <c r="BX23" s="47"/>
+      <c r="BY23" s="51"/>
       <c r="XEQ23" s="21"/>
       <c r="XER23" s="21"/>
       <c r="XES23" s="21"/>
@@ -13858,7 +12836,6 @@
     <mergeCell ref="M22:Q22"/>
     <mergeCell ref="R22:V22"/>
     <mergeCell ref="W22:AA22"/>
-    <mergeCell ref="BE5:BI5"/>
     <mergeCell ref="BC21:BC23"/>
     <mergeCell ref="BJ5:BN5"/>
     <mergeCell ref="AA5:AE5"/>
@@ -13904,6 +12881,7 @@
     <mergeCell ref="BA22:BA23"/>
     <mergeCell ref="AT22:AT23"/>
     <mergeCell ref="BO5:BS5"/>
+    <mergeCell ref="BE5:BI5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -13917,168 +12895,137 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CFAFD63-35A8-4310-8456-039925386A1A}">
-  <dimension ref="A1:AH14"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AD5" sqref="AD5"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.81640625" defaultRowHeight="9" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.1796875" style="33" customWidth="1"/>
     <col min="2" max="2" width="6.08984375" style="30" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" style="30" customWidth="1"/>
-    <col min="4" max="5" width="1.81640625" style="30"/>
-    <col min="6" max="6" width="10.7265625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" style="42" customWidth="1"/>
+    <col min="4" max="4" width="4.08984375" style="30" customWidth="1"/>
+    <col min="5" max="5" width="4" style="30" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" style="30" customWidth="1"/>
     <col min="7" max="7" width="9.54296875" style="30" customWidth="1"/>
     <col min="8" max="8" width="4.7265625" style="30" customWidth="1"/>
     <col min="9" max="9" width="6.453125" style="30" customWidth="1"/>
-    <col min="10" max="24" width="3.6328125" style="30" customWidth="1"/>
-    <col min="25" max="25" width="2.1796875" style="33" customWidth="1"/>
-    <col min="26" max="26" width="12.26953125" style="30" customWidth="1"/>
-    <col min="27" max="27" width="4.7265625" style="30" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.36328125" style="30" customWidth="1"/>
-    <col min="29" max="29" width="11.36328125" style="30" customWidth="1"/>
-    <col min="30" max="30" width="8.453125" style="30" customWidth="1"/>
-    <col min="31" max="31" width="11.81640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.90625" style="30" customWidth="1"/>
-    <col min="33" max="33" width="10.26953125" style="30" customWidth="1"/>
-    <col min="34" max="34" width="2.90625" style="30" customWidth="1"/>
-    <col min="35" max="16384" width="1.81640625" style="30"/>
+    <col min="10" max="21" width="3.6328125" style="30" customWidth="1"/>
+    <col min="22" max="26" width="2.6328125" style="30" customWidth="1"/>
+    <col min="27" max="27" width="3.6328125" style="30" customWidth="1"/>
+    <col min="28" max="28" width="2.1796875" style="33" customWidth="1"/>
+    <col min="29" max="29" width="12.26953125" style="30" customWidth="1"/>
+    <col min="30" max="30" width="4.7265625" style="30" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.90625" style="30" customWidth="1"/>
+    <col min="32" max="32" width="11.36328125" style="30" customWidth="1"/>
+    <col min="33" max="33" width="3.6328125" style="30" customWidth="1"/>
+    <col min="34" max="34" width="11.81640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.7265625" style="30" customWidth="1"/>
+    <col min="36" max="36" width="10.26953125" style="30" customWidth="1"/>
+    <col min="37" max="37" width="2.90625" style="30" customWidth="1"/>
+    <col min="38" max="16384" width="1.81640625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="64" t="s">
+    <row r="1" spans="1:27" ht="20" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="37"/>
+    </row>
+    <row r="2" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-    </row>
-    <row r="2" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="J3" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z3" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA3" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB3" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC3" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD3" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE3" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF3" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG3" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH3" s="47" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" ht="50" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="31"/>
+    </row>
+    <row r="4" spans="1:27" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="53"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
       <c r="J4" s="34" t="s">
         <v>95</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L4" s="35" t="s">
         <v>97</v>
@@ -14093,7 +13040,7 @@
         <v>100</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q4" s="35" t="s">
         <v>102</v>
@@ -14110,26 +13057,29 @@
       <c r="U4" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="47"/>
-    </row>
-    <row r="5" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V4" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="W4" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="X4" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y4" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z4" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA4" s="32"/>
+    </row>
+    <row r="5" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <v>1</v>
       </c>
       <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -14148,25 +13098,18 @@
       <c r="S5" s="38"/>
       <c r="T5" s="38"/>
       <c r="U5" s="38"/>
-      <c r="Y5" s="36">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="18"/>
-    </row>
-    <row r="6" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+    </row>
+    <row r="6" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
         <v>2</v>
       </c>
       <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -14185,25 +13128,18 @@
       <c r="S6" s="17"/>
       <c r="T6" s="17"/>
       <c r="U6" s="17"/>
-      <c r="Y6" s="36">
-        <v>2</v>
-      </c>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="18"/>
-    </row>
-    <row r="7" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+    </row>
+    <row r="7" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <v>3</v>
       </c>
       <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -14222,25 +13158,18 @@
       <c r="S7" s="17"/>
       <c r="T7" s="17"/>
       <c r="U7" s="17"/>
-      <c r="Y7" s="36">
-        <v>3</v>
-      </c>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="18"/>
-    </row>
-    <row r="8" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+    </row>
+    <row r="8" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <v>4</v>
       </c>
       <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -14259,25 +13188,18 @@
       <c r="S8" s="17"/>
       <c r="T8" s="17"/>
       <c r="U8" s="17"/>
-      <c r="Y8" s="36">
-        <v>4</v>
-      </c>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="17"/>
-      <c r="AH8" s="18"/>
-    </row>
-    <row r="9" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
+    </row>
+    <row r="9" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <v>5</v>
       </c>
       <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -14296,25 +13218,18 @@
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
       <c r="U9" s="17"/>
-      <c r="Y9" s="36">
-        <v>5</v>
-      </c>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="17"/>
-      <c r="AH9" s="18"/>
-    </row>
-    <row r="10" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
+    </row>
+    <row r="10" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <v>6</v>
       </c>
       <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -14333,25 +13248,18 @@
       <c r="S10" s="17"/>
       <c r="T10" s="17"/>
       <c r="U10" s="17"/>
-      <c r="Y10" s="36">
-        <v>6</v>
-      </c>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="17"/>
-      <c r="AH10" s="18"/>
-    </row>
-    <row r="11" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
+    </row>
+    <row r="11" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <v>7</v>
       </c>
       <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -14370,25 +13278,18 @@
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
       <c r="U11" s="17"/>
-      <c r="Y11" s="36">
-        <v>7</v>
-      </c>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="18"/>
-    </row>
-    <row r="12" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+    </row>
+    <row r="12" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <v>8</v>
       </c>
       <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -14407,25 +13308,18 @@
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
       <c r="U12" s="17"/>
-      <c r="Y12" s="36">
-        <v>8</v>
-      </c>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="18"/>
-    </row>
-    <row r="13" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41"/>
+    </row>
+    <row r="13" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <v>9</v>
       </c>
       <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -14444,25 +13338,18 @@
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
-      <c r="Y13" s="36">
-        <v>9</v>
-      </c>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="18"/>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="19"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="18"/>
-    </row>
-    <row r="14" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+    </row>
+    <row r="14" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <v>10</v>
       </c>
       <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -14481,29 +13368,16 @@
       <c r="S14" s="17"/>
       <c r="T14" s="17"/>
       <c r="U14" s="17"/>
-      <c r="Y14" s="36">
-        <v>10</v>
-      </c>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="19"/>
-      <c r="AF14" s="19"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="18"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="Y1:AH1"/>
+  <mergeCells count="12">
+    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="V3:Z3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -14512,14 +13386,263 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
-    <mergeCell ref="AH3:AH4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:U3"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>第 &amp;P 页，共 &amp;N 页</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE53EB0D-377F-41C0-B586-221E1CF56158}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" customWidth="1"/>
+    <col min="7" max="7" width="15.08984375" customWidth="1"/>
+    <col min="8" max="8" width="12.1796875" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="51"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="36">
+        <v>1</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="36">
+        <v>2</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="36">
+        <v>3</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="36">
+        <v>4</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="36">
+        <v>5</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="36">
+        <v>6</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="36">
+        <v>7</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="36">
+        <v>8</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="36">
+        <v>9</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="36">
+        <v>10</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <headerFooter>
